--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1433970.046619386</v>
+        <v>1509405.4793244</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18097667.66179886</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771604.572050061</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6165899.342610548</v>
+        <v>6644859.45915971</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>239.8339399846174</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>281.8090608739762</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>1.051882743850471</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>45.09643303802075</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>103.1764748890656</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>86.24780263610054</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -959,7 +961,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.1673564559255</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1111,10 +1113,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>43.50547310727811</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,25 +1135,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>154.8976684930131</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>117.0638001086801</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1300,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>57.17380082342439</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1351,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494614</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D11" t="n">
-        <v>393.7754617525123</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>83.49545568307902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>122.4914619056499</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>220.9685440153773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>66.96958968939217</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112167</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2011,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345333</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>60.78001549303652</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2147,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2242,10 +2244,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>32.98066327132856</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2482,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>243.9266518127007</v>
+        <v>260.6622565498274</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2773,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>107.3792913045956</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>22.2853439284767</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>82.64119670414925</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>24.40875262509115</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3560,10 +3562,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3670,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.056777352261</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>33.28996520190781</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482701</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3740,19 +3742,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3794,16 +3796,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>23.69065354199986</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170469</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>179.0861311466703</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>236.2257497837618</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4037,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4141,10 +4143,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>113.5770391806062</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>408.814550130601</v>
+        <v>763.0287521501519</v>
       </c>
       <c r="C2" t="n">
-        <v>374.7124813544283</v>
+        <v>520.7722471151849</v>
       </c>
       <c r="D2" t="n">
-        <v>342.8431005692769</v>
+        <v>488.9028663300335</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>459.1685255287327</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
-        <v>874.0494664914149</v>
-      </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>854.4618996557366</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X2" t="n">
-        <v>839.3598402754513</v>
+        <v>1193.574042295002</v>
       </c>
       <c r="Y2" t="n">
-        <v>835.1141206155088</v>
+        <v>785.2879185946557</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4406,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>455.1353934216538</v>
+        <v>947.1238364150125</v>
       </c>
       <c r="C4" t="n">
-        <v>455.1353934216538</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D4" t="n">
-        <v>289.2574006231765</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2574006231765</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>289.2574006231765</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>123.6661256490042</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4486,22 +4488,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.509060631519</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V4" t="n">
-        <v>972.5535525019498</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W4" t="n">
-        <v>700.5271480882413</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="X4" t="n">
-        <v>455.1353934216538</v>
+        <v>1184.494407697657</v>
       </c>
       <c r="Y4" t="n">
-        <v>455.1353934216538</v>
+        <v>1138.942455134</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.308896547785</v>
+        <v>924.2019448201994</v>
       </c>
       <c r="C5" t="n">
-        <v>1710.206827771612</v>
+        <v>890.0998760440268</v>
       </c>
       <c r="D5" t="n">
-        <v>1605.988166267505</v>
+        <v>858.2304952588754</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.213421425801</v>
+        <v>828.4961544575747</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2178.745152974706</v>
       </c>
       <c r="V5" t="n">
-        <v>2190.771296621483</v>
+        <v>2178.745152974706</v>
       </c>
       <c r="W5" t="n">
-        <v>1785.915842032516</v>
+        <v>1773.889698385739</v>
       </c>
       <c r="X5" t="n">
-        <v>1770.813782652231</v>
+        <v>1354.74723496505</v>
       </c>
       <c r="Y5" t="n">
-        <v>1766.568062992289</v>
+        <v>1350.501515305107</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="M6" t="n">
-        <v>79.46488968908616</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="N6" t="n">
-        <v>79.46488968908616</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>819.9954913141095</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>819.9954913141095</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>654.1174985156322</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>484.3594947663694</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>307.6524407281256</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>266.2978593068779</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>684.5077410748389</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2362.377960771848</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2116.498514350304</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>1838.065513603409</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>305.9860876711973</v>
+        <v>1270.144995079233</v>
       </c>
       <c r="C8" t="n">
-        <v>271.8840188950247</v>
+        <v>832.0025222626568</v>
       </c>
       <c r="D8" t="n">
-        <v>240.0146381098733</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E8" t="n">
-        <v>210.2802973085725</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.540662806093</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.540662806093</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4835,19 +4837,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.569699866108</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1559.714245277141</v>
+        <v>2222.976952000528</v>
       </c>
       <c r="X8" t="n">
-        <v>1140.571781856452</v>
+        <v>2104.730689264488</v>
       </c>
       <c r="Y8" t="n">
-        <v>732.2856581561051</v>
+        <v>1696.444565564141</v>
       </c>
     </row>
     <row r="9">
@@ -4896,7 +4898,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1013.503637065321</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>840.941925548546</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>675.0639327500687</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>505.305929000806</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4999,13 +5001,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1678.133681136788</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1432.7419264702</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y10" t="n">
-        <v>1205.322255784308</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>899.4937977394515</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>461.3513249228748</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>63.59833325367036</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>63.59833325367036</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>63.59833325367036</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>63.59833325367036</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>63.59833325367036</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>63.59833325367036</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>498.8530207065883</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>649.6744758879494</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1436.70384990212</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1436.70384990212</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2223.733223916291</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O11" t="n">
-        <v>2223.733223916291</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3010.762597930461</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3010.762597930461</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3179.916662683518</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3179.916662683518</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3179.916662683518</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2920.694360000535</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2558.077409934362</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2153.221955345395</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>1734.079491924706</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1325.793368224359</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>569.7700782449632</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>463.3136170816055</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>368.2233282281587</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>274.1029135551124</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>190.719075171274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>105.3339854374579</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>63.59833325367036</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>89.66200641412796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>414.2203313803403</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>414.2203313803403</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>414.2203313803403</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>414.2203313803403</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>414.2203313803403</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>414.2203313803403</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1068.926378006064</v>
+        <v>1272.606004876648</v>
       </c>
       <c r="Q12" t="n">
-        <v>1609.66531663814</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1726.838094732479</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1663.382657180862</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1533.204013511464</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1356.867466511432</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1157.749948573432</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>972.4271943066256</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>817.5597585455056</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>691.0739793247263</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1053.996544640227</v>
+        <v>1176.997895781659</v>
       </c>
       <c r="C13" t="n">
-        <v>881.434833123452</v>
+        <v>1004.436184264884</v>
       </c>
       <c r="D13" t="n">
-        <v>715.5568403249747</v>
+        <v>838.5581914664062</v>
       </c>
       <c r="E13" t="n">
-        <v>545.798836575712</v>
+        <v>668.8001877171434</v>
       </c>
       <c r="F13" t="n">
-        <v>369.0917825374682</v>
+        <v>492.0931336788997</v>
       </c>
       <c r="G13" t="n">
-        <v>203.5005075632959</v>
+        <v>326.5018587047273</v>
       </c>
       <c r="H13" t="n">
-        <v>63.59833325367036</v>
+        <v>186.5996843951019</v>
       </c>
       <c r="I13" t="n">
-        <v>63.59833325367036</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>150.1780184183602</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>424.9364729894958</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>843.1463547574568</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1302.63022193837</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1744.889025096014</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2164.558274321796</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2512.065168292138</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2680.25794315647</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2680.25794315647</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2680.25794315647</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T13" t="n">
-        <v>2434.378496734925</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U13" t="n">
-        <v>2155.94549598803</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V13" t="n">
-        <v>1868.989987858461</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W13" t="n">
-        <v>1596.963583444752</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X13" t="n">
-        <v>1473.234834045106</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y13" t="n">
-        <v>1245.815163359214</v>
+        <v>1368.816514500646</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1158.716100422434</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>720.5736276058574</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>497.3730780953752</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>63.59833325367036</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>63.59833325367036</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>63.59833325367036</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>63.59833325367036</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
-        <v>63.59833325367036</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>498.8530207065883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>649.6744758879494</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L14" t="n">
-        <v>649.6744758879494</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M14" t="n">
-        <v>1436.70384990212</v>
+        <v>2291.478512820577</v>
       </c>
       <c r="N14" t="n">
-        <v>2223.733223916291</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="O14" t="n">
-        <v>2223.733223916291</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P14" t="n">
-        <v>3010.762597930461</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3010.762597930461</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3179.916662683518</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3179.916662683518</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3179.916662683518</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3179.916662683518</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2817.299712617345</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2412.444258028378</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1993.301794607688</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1585.015670907342</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>569.7700782449632</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>463.3136170816055</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>368.2233282281587</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>274.1029135551124</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>190.719075171274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>105.3339854374579</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>63.59833325367036</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>89.66200641412796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>414.2203313803403</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K15" t="n">
-        <v>1068.926378006064</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L15" t="n">
-        <v>1068.926378006064</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M15" t="n">
-        <v>1068.926378006064</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N15" t="n">
-        <v>1068.926378006064</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O15" t="n">
-        <v>1068.926378006064</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P15" t="n">
-        <v>1068.926378006064</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q15" t="n">
-        <v>1609.66531663814</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1726.838094732479</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1663.382657180862</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1533.204013511464</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1356.867466511432</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1157.749948573432</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>972.4271943066256</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>817.5597585455056</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>691.0739793247263</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1142.656493865552</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>970.0947823487767</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>804.2167895502994</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>634.4587858010367</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>457.7517317627929</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>292.1604567886205</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>152.258282478995</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>63.59833325367036</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>150.1780184183602</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>424.9364729894958</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>843.1463547574568</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1302.63022193837</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1744.889025096014</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2164.558274321796</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2512.065168292138</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2680.25794315647</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2658.840121861842</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2658.840121861842</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2412.960675440297</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2366.268450480296</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>2079.312942350727</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1807.286537937018</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1561.894783270431</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1334.475112584539</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771603</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004242</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5516,49 +5518,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2627364873778</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5753,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>1832.799255305531</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2989.847090516082</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5795,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937665</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769915</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5926,34 +5928,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U22" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878941</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.966900465233</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127537</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N23" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6066,28 +6068,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1011.560997133398</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C25" t="n">
-        <v>838.9992856166232</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>673.1212928181459</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1948.217445618573</v>
+        <v>1750.653604372319</v>
       </c>
       <c r="W25" t="n">
-        <v>1676.191041204865</v>
+        <v>1478.62719995861</v>
       </c>
       <c r="X25" t="n">
-        <v>1430.799286538277</v>
+        <v>1233.235445292023</v>
       </c>
       <c r="Y25" t="n">
-        <v>1203.379615852385</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="26">
@@ -6224,22 +6226,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>502.6211945723451</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>1336.971486530523</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L26" t="n">
-        <v>2412.031452783383</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M26" t="n">
-        <v>3569.079287993933</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="N26" t="n">
-        <v>3569.079287993933</v>
+        <v>2738.306477413004</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3718.48614398331</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>210.9600532992111</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>210.9600532992111</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>210.9600532992111</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>210.9600532992111</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>210.9600532992111</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1224.761663117513</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2627364873769</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>1632.322702740236</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740236</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2738.306477413004</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,28 +6539,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>414.500552094942</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,64 +6925,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1003.573296407379</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2513.605954495037</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2235.172953748142</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="38">
@@ -7178,22 +7180,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7208,7 +7210,7 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257732</v>
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903988</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736237</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751464</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258837</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F40" t="n">
-        <v>286.0912842876398</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134675</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2663.876401402276</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.652494875574</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461865</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795278</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109386</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1655.064964416239</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1216.922491599662</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>781.0127067741064</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>781.0127067741064</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>353.1452771833141</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>353.1452771833141</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>64.01512262653036</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>63.59833325367036</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>63.59833325367036</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>649.6744758879494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L41" t="n">
-        <v>1436.70384990212</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M41" t="n">
-        <v>1436.70384990212</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N41" t="n">
-        <v>1436.70384990212</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O41" t="n">
-        <v>2223.733223916291</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3010.762597930461</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3010.762597930461</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3179.916662683518</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3096.264788867355</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>2876.197561740394</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>2876.197561740394</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2513.58061167422</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2513.58061167422</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2489.650658601493</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2081.364534901146</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>569.7700782449632</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>463.3136170816055</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>368.2233282281587</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>274.1029135551124</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>190.719075171274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>105.3339854374579</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>63.59833325367036</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>63.59833325367036</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>63.59833325367036</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>399.0697820862329</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>399.0697820862329</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>399.0697820862329</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>399.0697820862329</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>399.0697820862329</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1186.099156100404</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1726.838094732479</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1726.838094732479</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1663.382657180862</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1533.204013511464</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1356.867466511432</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1157.749948573432</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>972.4271943066256</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>817.5597585455056</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>691.0739793247263</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>773.0921706712825</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>600.5304591545074</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>434.6524663560301</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>264.8944626067674</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>88.18740856852358</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>63.59833325367036</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>63.59833325367036</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>63.59833325367036</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>150.1780184183602</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>424.9364729894958</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>843.1463547574568</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1302.63022193837</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1744.889025096014</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2164.558274321796</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2512.065168292138</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2680.25794315647</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2680.25794315647</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2521.016574454467</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2275.137128032922</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>1996.704127286027</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.748619156457</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W43" t="n">
-        <v>1437.722214742749</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.330460076161</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.9107893902697</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1426.929721870201</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1426.929721870201</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1426.929721870201</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>993.1549770284964</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>754.5431085600502</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1452771833141</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>64.01512262653036</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>63.59833325367036</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>498.8530207065883</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1285.882394720759</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1285.882394720759</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>1285.882394720759</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N44" t="n">
-        <v>1677.234437957696</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>1677.234437957696</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>2464.263811971866</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3010.762597930461</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3179.916662683518</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3096.264788867355</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>2876.197561740394</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>2616.975259057411</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2254.358308991237</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2254.358308991237</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>1835.215845570548</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1426.929721870201</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>569.7700782449632</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>463.3136170816055</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>368.2233282281587</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>274.1029135551124</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>190.719075171274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>105.3339854374579</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>63.59833325367036</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>89.66200641412796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>414.2203313803403</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1068.926378006064</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1068.926378006064</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1068.926378006064</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1068.926378006064</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1068.926378006064</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1068.926378006064</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1609.66531663814</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1726.838094732479</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1663.382657180862</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1533.204013511464</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1356.867466511432</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1157.749948573432</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>972.4271943066256</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>817.5597585455056</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>691.0739793247263</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1142.656493865552</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C46" t="n">
-        <v>970.0947823487767</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D46" t="n">
-        <v>804.2167895502994</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E46" t="n">
-        <v>634.4587858010367</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="F46" t="n">
-        <v>457.7517317627929</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>292.1604567886205</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>152.258282478995</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>63.59833325367036</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>150.1780184183602</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>424.9364729894958</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>843.1463547574568</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1302.63022193837</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1744.889025096014</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2164.558274321796</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2512.065168292138</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2680.25794315647</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2680.25794315647</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2680.25794315647</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2644.701451227191</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U46" t="n">
-        <v>2366.268450480296</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V46" t="n">
-        <v>2079.312942350727</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W46" t="n">
-        <v>1807.286537937018</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X46" t="n">
-        <v>1561.894783270431</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y46" t="n">
-        <v>1334.475112584539</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -7988,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>385.2554146752023</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>512.4570950335019</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8292,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377786</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>640.5448952297621</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,10 +8473,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8544,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="P9" t="n">
         <v>347.9676668794094</v>
-      </c>
-      <c r="P9" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>152.344904223597</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>794.9791656708795</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>794.9791656708794</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>794.9791656708794</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>152.344904223597</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>794.9791656708795</v>
+        <v>282.6337518573332</v>
       </c>
       <c r="N14" t="n">
-        <v>794.9791656708794</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>794.9791656708794</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>19.94667551886903</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9173,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>905.2405283601752</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9413,16 +9415,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9647,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>565.8642197954468</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>404.4043982844095</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>685.7606250949684</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7971848772035</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>459.5978749662599</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>839.1644551322515</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10349,19 +10351,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>978.3939631918001</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,25 +10828,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>13.84524407969548</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>664.5938549921407</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9961036709889</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>794.9791656708795</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>794.9791656708794</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P41" t="n">
-        <v>794.9791656708794</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>338.8600493258208</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>794.9791656708795</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>794.9791656708795</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>395.3050941787242</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>794.9791656708794</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>37.77522522478756</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>4.277894049992398</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>210.5821429619226</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>122.9308428424051</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>160.795820744408</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>131.238549599164</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>40.15930123557317</v>
+        <v>23.42369649844647</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>88.19489769745806</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.0118993322381</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142682</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>124.3589898130755</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25634,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25682,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>391.2603852444826</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>90.22000922290104</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>187.3630055111226</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26029,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>61.36294431725513</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>561098.635937196</v>
+        <v>558815.1558912704</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416472.8865042094</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416472.8865042093</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>581147.9440087449</v>
+        <v>581147.9440087448</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>581147.9440087449</v>
+        <v>581147.944008745</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>581147.9440087449</v>
+        <v>581147.944008745</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>581147.9440087449</v>
+        <v>581147.9440087448</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>581147.9440087449</v>
+        <v>581147.944008745</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>416472.8865042093</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>416472.8865042093</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.855912327</v>
+        <v>428917.8559123269</v>
       </c>
       <c r="C2" t="n">
-        <v>428917.8559123269</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="D2" t="n">
-        <v>428917.8559123269</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>302053.0673532119</v>
+        <v>421486.067309882</v>
       </c>
       <c r="F2" t="n">
-        <v>302053.0673532118</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="G2" t="n">
         <v>421486.067309882</v>
@@ -26347,13 +26349,13 @@
         <v>421486.0673098819</v>
       </c>
       <c r="N2" t="n">
+        <v>421486.067309882</v>
+      </c>
+      <c r="O2" t="n">
+        <v>421486.067309882</v>
+      </c>
+      <c r="P2" t="n">
         <v>421486.0673098819</v>
-      </c>
-      <c r="O2" t="n">
-        <v>302053.0673532118</v>
-      </c>
-      <c r="P2" t="n">
-        <v>302053.0673532119</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>78577.04195825371</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>38057.93396911916</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>132460.1654473049</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>62596.87743601672</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>31764.52845434147</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>165263.0882595584</v>
+        <v>171472.7657924763</v>
       </c>
       <c r="D4" t="n">
-        <v>165263.0882595584</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="E4" t="n">
-        <v>58362.71771249309</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="F4" t="n">
-        <v>58362.71771249309</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904277</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26442,22 +26444,22 @@
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
+        <v>81439.57146904284</v>
+      </c>
+      <c r="N4" t="n">
+        <v>81439.5714690428</v>
+      </c>
+      <c r="O4" t="n">
         <v>81439.57146904283</v>
       </c>
-      <c r="N4" t="n">
-        <v>81439.57146904283</v>
-      </c>
-      <c r="O4" t="n">
-        <v>58362.71771249309</v>
-      </c>
       <c r="P4" t="n">
-        <v>58362.71771249309</v>
+        <v>81439.57146904284</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>48334.73327278948</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>48334.73327278948</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>48334.73327278948</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>48334.73327278948</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>21340.79427352787</v>
       </c>
       <c r="C6" t="n">
-        <v>110865.2011327571</v>
+        <v>118901.108416832</v>
       </c>
       <c r="D6" t="n">
-        <v>189442.2430910108</v>
+        <v>177914.6475410276</v>
       </c>
       <c r="E6" t="n">
-        <v>157297.6823988102</v>
+        <v>79973.14801399683</v>
       </c>
       <c r="F6" t="n">
-        <v>195355.6163679292</v>
+        <v>262328.2572350465</v>
       </c>
       <c r="G6" t="n">
-        <v>129868.0917877417</v>
+        <v>262328.2572350467</v>
       </c>
       <c r="H6" t="n">
-        <v>262328.2572350466</v>
+        <v>262328.2572350465</v>
       </c>
       <c r="I6" t="n">
-        <v>262328.2572350466</v>
+        <v>262328.2572350465</v>
       </c>
       <c r="J6" t="n">
         <v>151313.7918900563</v>
       </c>
       <c r="K6" t="n">
-        <v>199731.3797990298</v>
+        <v>209282.4025962742</v>
       </c>
       <c r="L6" t="n">
+        <v>252935.9555084241</v>
+      </c>
+      <c r="M6" t="n">
+        <v>110128.0862970588</v>
+      </c>
+      <c r="N6" t="n">
+        <v>262328.2572350467</v>
+      </c>
+      <c r="O6" t="n">
         <v>262328.2572350466</v>
       </c>
-      <c r="M6" t="n">
-        <v>230563.7287807051</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>262328.2572350465</v>
-      </c>
-      <c r="O6" t="n">
-        <v>195355.6163679292</v>
-      </c>
-      <c r="P6" t="n">
-        <v>195355.6163679293</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>794.9791656708795</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>794.9791656708795</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>794.9791656708795</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>794.9791656708795</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>243.2193490877526</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>127.4639590630226</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>483.2813377138658</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>243.2193490877526</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>127.4639590630226</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>243.2193490877526</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>127.4639590630226</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>483.2813377138658</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>193.9271081037935</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>147.6279365193116</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>137.4512698226787</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>180.049040941012</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>328.3742120882343</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>337.3409526587837</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.73307607587176</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>240.5804799409957</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>268.6910868018712</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>297.8872386778023</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>117.7661826744369</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>144.1344859240867</v>
       </c>
     </row>
     <row r="11">
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -30283,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30438,7 +30440,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>385.2554146752023</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>512.4570950335019</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35012,10 +35014,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377786</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>640.5448952297621</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,10 +35193,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35264,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="P9" t="n">
         <v>347.9676668794094</v>
-      </c>
-      <c r="P9" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>152.344904223597</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>794.9791656708795</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>794.9791656708794</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>794.9791656708794</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>152.344904223597</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>794.9791656708795</v>
+        <v>282.6337518573332</v>
       </c>
       <c r="N14" t="n">
-        <v>794.9791656708794</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>794.9791656708794</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35886,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>19.94667551886903</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>905.2405283601752</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36133,16 +36135,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36294,7 +36296,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165102</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,19 +36369,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>565.8642197954468</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>404.4043982844095</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>685.7606250949684</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7971848772035</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>459.5978749662599</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36844,7 +36846,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>839.1644551322515</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37069,19 +37071,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>978.3939631918001</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>13.84524407969548</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>664.5938549921407</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9961036709889</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>794.9791656708795</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>794.9791656708794</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P41" t="n">
-        <v>794.9791656708794</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>338.8600493258208</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>794.9791656708795</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>794.9791656708795</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>395.3050941787242</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>794.9791656708794</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1509405.4793244</v>
+        <v>1508880.296955368</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916859</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6644859.45915971</v>
+        <v>6644859.459159709</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>239.8339399846174</v>
+        <v>332.4291174559667</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.09643303802075</v>
+        <v>166.5734816510531</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>86.24780263610054</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>350.4850158787456</v>
       </c>
     </row>
     <row r="6">
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>117.4594889613488</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>43.50547310727811</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1147,10 +1147,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>71.16696941141522</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>117.0638001086801</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1356,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.01098805494614</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>83.49545568307902</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1587,16 +1587,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>161.1551102058687</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864838</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.96958968939217</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1776,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>52.00914065545607</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112167</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2007,16 +2007,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>61.06386613909843</v>
       </c>
       <c r="G19" t="n">
-        <v>60.78001549303652</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2244,10 +2244,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>32.98066327132856</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2535,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>260.6622565498274</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2775,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>107.3792913045956</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="29">
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.2853439284767</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3432,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3444,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>24.40875262509115</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3562,7 +3562,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3669,16 +3669,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>33.28996520190781</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3954,13 +3954,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>179.0861311466703</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>113.5770391806062</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>763.0287521501519</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>520.7722471151849</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4330,22 +4330,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1208.676101675288</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1193.574042295002</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>785.2879185946557</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.1238364150125</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4494,46 +4494,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1429.886162364244</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>1429.886162364244</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W4" t="n">
-        <v>1429.886162364244</v>
+        <v>1020.036210543161</v>
       </c>
       <c r="X4" t="n">
-        <v>1184.494407697657</v>
+        <v>1020.036210543161</v>
       </c>
       <c r="Y4" t="n">
-        <v>1138.942455134</v>
+        <v>851.7801684713901</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>924.2019448201994</v>
+        <v>978.4627999561583</v>
       </c>
       <c r="C5" t="n">
-        <v>890.0998760440268</v>
+        <v>540.3203271395815</v>
       </c>
       <c r="D5" t="n">
-        <v>858.2304952588754</v>
+        <v>104.410542314026</v>
       </c>
       <c r="E5" t="n">
-        <v>828.4961544575747</v>
+        <v>74.67620151272529</v>
       </c>
       <c r="F5" t="n">
-        <v>741.3771618958569</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233704</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947704</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947704</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>557.7649106726439</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="M5" t="n">
-        <v>557.7649106726439</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726439</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717422</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.9664787622</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720795</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657689</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657689</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="U5" t="n">
-        <v>2178.745152974706</v>
+        <v>2178.745152974708</v>
       </c>
       <c r="V5" t="n">
-        <v>2178.745152974706</v>
+        <v>2178.745152974708</v>
       </c>
       <c r="W5" t="n">
-        <v>1773.889698385739</v>
+        <v>1773.889698385741</v>
       </c>
       <c r="X5" t="n">
-        <v>1354.74723496505</v>
+        <v>1354.747234965052</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.501515305107</v>
+        <v>1000.721966400662</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326457</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993464</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760925</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>900.9284236664083</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>728.3667121496333</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>562.488719351156</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>392.7307156018932</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>216.0236615636494</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068779</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748389</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255752</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639178</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>2362.377960771848</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T7" t="n">
-        <v>2116.498514350304</v>
+        <v>2402.973381028047</v>
       </c>
       <c r="U7" t="n">
-        <v>1838.065513603409</v>
+        <v>2124.540380281152</v>
       </c>
       <c r="V7" t="n">
-        <v>1794.120591272825</v>
+        <v>1837.584872151583</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1565.558467737875</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606237</v>
+        <v>1320.166713071287</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>1092.747042385395</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.144995079233</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C8" t="n">
-        <v>832.0025222626568</v>
+        <v>614.7581953941713</v>
       </c>
       <c r="D8" t="n">
-        <v>396.0927374371013</v>
+        <v>178.8484105686157</v>
       </c>
       <c r="E8" t="n">
-        <v>366.3583966358005</v>
+        <v>149.114069767315</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>125.2870442169268</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4804,52 +4804,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2223.792002549091</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>2222.976952000528</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>2104.730689264488</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1696.444565564141</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
         <v>624.2616690759949</v>
@@ -5004,10 +5004,10 @@
         <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1406.107276723079</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
@@ -5050,10 +5050,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
         <v>3569.079287993934</v>
@@ -5123,22 +5123,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L12" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M12" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N12" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O12" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P12" t="n">
-        <v>1272.606004876648</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1176.997895781659</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>1004.436184264884</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>838.5581914664062</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>668.8001877171434</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>492.0931336788997</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>326.5018587047273</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>186.5996843951019</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1886.234673580942</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W13" t="n">
-        <v>1614.208269167233</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X13" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1368.816514500646</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2291.478512820577</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
@@ -5320,10 +5320,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>884.5847208382039</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>718.7067280397266</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>548.9487242904638</v>
       </c>
       <c r="F16" t="n">
         <v>496.4142387799021</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771603</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004242</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O18" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5655,13 +5655,13 @@
         <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F19" t="n">
-        <v>303.5569696238763</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
         <v>242.1630145804051</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1832.799255305531</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2989.847090516082</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4115.578073952529</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O20" t="n">
-        <v>4115.578073952529</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5834,22 +5834,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937665</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769915</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>584.4613435928212</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5928,34 +5928,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878954</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878941</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.966900465233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127537</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6065,28 +6065,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1750.653604372319</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1478.62719995861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1233.235445292023</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6229,19 +6229,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2738.306477413004</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3718.48614398331</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1618.529374268236</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,19 +6463,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>1612.575493976557</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>2738.306477413004</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>927.0677766831641</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2674.992180466348</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2429.112734044803</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2150.679733297909</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1863.724225168339</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1591.697820754631</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1346.306066088043</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.886395402151</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1134.430677610025</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2291.478512820576</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1011.560997133398</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C37" t="n">
-        <v>838.9992856166232</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D37" t="n">
-        <v>673.1212928181459</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2513.605954495037</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2235.172953748142</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1948.217445618573</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W37" t="n">
-        <v>1676.191041204865</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X37" t="n">
-        <v>1430.799286538277</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y37" t="n">
-        <v>1203.379615852385</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7186,16 +7186,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7210,16 +7210,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>915.9519976190925</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>743.3902861023174</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>577.5122933038401</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2663.876401402276</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2417.996954980732</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2139.563954233837</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1852.608446104267</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1580.582041690559</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1335.190287023971</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1107.77061633808</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7414,16 +7414,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
         <v>3569.079287993934</v>
@@ -7487,31 +7487,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.616358467827</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.616358467827</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.616358467827</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.616358467827</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P42" t="n">
-        <v>1133.616358467827</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2313.799635050031</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>2026.844126920461</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7654,10 +7654,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423628</v>
@@ -7678,16 +7678,16 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
@@ -7730,22 +7730,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>611.1385207805145</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8063,10 +8063,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>512.4570950335019</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664741958</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377786</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8698,13 +8698,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>379.5169886652534</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8935,16 +8935,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>282.6337518573332</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>905.2405283601752</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9877,7 +9877,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9886,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>685.7606250949684</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10123,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
-        <v>839.1644551322515</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>1042.595795292167</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>13.84524407969548</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>60.59188538505214</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.277894049992398</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>81.78272691405292</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.9308428424051</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>122.9308428424053</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="G19" t="n">
-        <v>103.1553467313941</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>131.238549599164</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>23.42369649844647</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="29">
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>135.3636110865066</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.0118993322381</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>124.3589898130755</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>90.22000922290104</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>61.36294431725513</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>581147.944008745</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>581147.944008745</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>581147.9440087448</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>581147.944008745</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
     <row r="14">
@@ -26325,10 +26325,10 @@
         <v>421486.067309882</v>
       </c>
       <c r="F2" t="n">
+        <v>421486.0673098818</v>
+      </c>
+      <c r="G2" t="n">
         <v>421486.0673098819</v>
-      </c>
-      <c r="G2" t="n">
-        <v>421486.067309882</v>
       </c>
       <c r="H2" t="n">
         <v>421486.0673098819</v>
@@ -26352,7 +26352,7 @@
         <v>421486.067309882</v>
       </c>
       <c r="O2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="P2" t="n">
         <v>421486.0673098819</v>
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501596</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998296</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877235</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622472</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,43 +26420,43 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>171472.7657924763</v>
+        <v>171472.7657924762</v>
       </c>
       <c r="D4" t="n">
-        <v>165263.0882595585</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
+        <v>81439.5714690428</v>
+      </c>
+      <c r="F4" t="n">
+        <v>81439.57146904277</v>
+      </c>
+      <c r="G4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="H4" t="n">
+        <v>81439.57146904278</v>
+      </c>
+      <c r="I4" t="n">
         <v>81439.57146904284</v>
-      </c>
-      <c r="F4" t="n">
-        <v>81439.57146904286</v>
-      </c>
-      <c r="G4" t="n">
-        <v>81439.57146904286</v>
-      </c>
-      <c r="H4" t="n">
-        <v>81439.57146904284</v>
-      </c>
-      <c r="I4" t="n">
-        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
         <v>81439.5714690428</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="P4" t="n">
         <v>81439.57146904284</v>
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800255</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26527,43 +26527,43 @@
         <v>118901.108416832</v>
       </c>
       <c r="D6" t="n">
-        <v>177914.6475410276</v>
+        <v>177914.6475410279</v>
       </c>
       <c r="E6" t="n">
-        <v>79973.14801399683</v>
+        <v>79949.92367461426</v>
       </c>
       <c r="F6" t="n">
-        <v>262328.2572350465</v>
+        <v>262305.0328956638</v>
       </c>
       <c r="G6" t="n">
-        <v>262328.2572350467</v>
+        <v>262305.0328956639</v>
       </c>
       <c r="H6" t="n">
-        <v>262328.2572350465</v>
+        <v>262305.0328956639</v>
       </c>
       <c r="I6" t="n">
-        <v>262328.2572350465</v>
+        <v>262305.0328956639</v>
       </c>
       <c r="J6" t="n">
-        <v>151313.7918900563</v>
+        <v>151290.5675506737</v>
       </c>
       <c r="K6" t="n">
-        <v>209282.4025962742</v>
+        <v>209259.1782568914</v>
       </c>
       <c r="L6" t="n">
-        <v>252935.9555084241</v>
+        <v>252912.7311690416</v>
       </c>
       <c r="M6" t="n">
-        <v>110128.0862970588</v>
+        <v>110104.8619576762</v>
       </c>
       <c r="N6" t="n">
-        <v>262328.2572350467</v>
+        <v>262305.032895664</v>
       </c>
       <c r="O6" t="n">
-        <v>262328.2572350466</v>
+        <v>262305.0328956639</v>
       </c>
       <c r="P6" t="n">
-        <v>262328.2572350465</v>
+        <v>262305.0328956638</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27381,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>193.9271081037935</v>
+        <v>101.3319306324442</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27441,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>180.049040941012</v>
+        <v>58.5719923279797</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>337.3409526587837</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>53.71824658459747</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>125.9611629959805</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>240.5804799409957</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>326.2168836515535</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>297.8872386778023</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>54.79268646174569</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1344859240867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.742005345385692e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.43088606097896e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-7.742005345385692e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34783,10 +34783,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>512.4570950335019</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664741958</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377786</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35418,13 +35418,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>379.5169886652534</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>282.6337518573332</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>905.2405283601752</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36144,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36296,7 +36296,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165102</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36369,7 +36369,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327043</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36597,7 +36597,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36606,13 +36606,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>685.7606250949684</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,10 +36843,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
-        <v>839.1644551322515</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>1042.595795292167</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37554,19 +37554,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>13.84524407969548</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>60.59188538505214</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
